--- a/biology/Zoologie/Christian_Friedrich_Freyer/Christian_Friedrich_Freyer.xlsx
+++ b/biology/Zoologie/Christian_Friedrich_Freyer/Christian_Friedrich_Freyer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Friedrich Freyer est un entomologiste amateur bavarois, né le 25 août 1794 à Wassertrüdingen et mort le 10 novembre 1885 à Augsbourg. Il figure parmi les entomologistes spécialistes des papillons les plus connus et ses ouvrages sont des œuvres majeures.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'intéresse aux papillons dès son enfance. En 1820 il obtient un emploi de fonctionnaire à Augsbourg. Il occupe tous ses moments de liberté à l'étude des papillons. Devenu conservateur d'entomologie il est chargé de la collection de la Naturhistorischen fondée à Augsbourg en 1846 (et devenue Naturwissenschaftlichen de Souabe)
 Freyer étudie particulièrement les papillons, ceux autour d'Augsbourg et ceux de tout un réseau international d'entomologistes. Il est l’auteur de nombreuses espèces. Ses collections sont conservées au Muséum de Francfort-sur-le-Main.
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">1829 : Beitrage zur Geschichte europaischer Schmetterlinge mit Abbildungen nach der Natur. Rieger. Nurberg. 166 p., 48 pls.
 1833- 1858: Neuere Beiträge zur Schmetterlingskunde mit Abbildungen nach der Natur.
@@ -580,7 +596,9 @@
           <t>Espèces décrites</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Apatura metis Freyer, 1829
 Aricia anteros (Freyer, 1839)
@@ -632,7 +650,9 @@
           <t>Espèces dédiées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Azuré de Freyer (Freyeria trochylus)
 Marbré de Freyer (Euchloe simplonia)</t>
